--- a/Comp230/sales_data2.xlsx
+++ b/Comp230/sales_data2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t xml:space="preserve">Customer</t>
   </si>
@@ -116,42 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">line total</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Total of </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">all</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> invoices</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -197,7 +161,7 @@
     <numFmt numFmtId="166" formatCode="YYYY/MM/DD"/>
     <numFmt numFmtId="167" formatCode="[$$-1009]#,##0.00;[RED]\-[$$-1009]#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -221,21 +185,21 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -243,16 +207,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <u val="single"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -351,21 +306,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -376,7 +331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>123</v>
       </c>
@@ -387,7 +342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>124</v>
       </c>
@@ -398,7 +353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>125</v>
       </c>
@@ -409,7 +364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>126</v>
       </c>
@@ -420,7 +375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>127</v>
       </c>
@@ -431,7 +386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>128</v>
       </c>
@@ -441,10 +396,8 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>129</v>
       </c>
@@ -455,7 +408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>130</v>
       </c>
@@ -466,10 +419,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>1000</v>
       </c>
@@ -480,7 +433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>1001</v>
       </c>
@@ -491,7 +444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>1002</v>
       </c>
@@ -502,7 +455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>1003</v>
       </c>
@@ -529,23 +482,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="2" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="1019" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="2" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -556,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>2222</v>
       </c>
@@ -567,7 +519,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>2223</v>
       </c>
@@ -578,7 +530,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>2224</v>
       </c>
@@ -589,7 +541,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>2225</v>
       </c>
@@ -600,7 +552,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>2226</v>
       </c>
@@ -611,7 +563,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>2227</v>
       </c>
@@ -622,7 +574,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>2228</v>
       </c>
@@ -633,7 +585,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>2229</v>
       </c>
@@ -644,7 +596,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>2230</v>
       </c>
@@ -655,7 +607,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
         <v>2231</v>
       </c>
@@ -666,7 +618,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <v>2232</v>
       </c>
@@ -677,7 +629,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>2233</v>
       </c>
@@ -688,7 +640,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>2234</v>
       </c>
@@ -699,7 +651,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>2235</v>
       </c>
@@ -710,7 +662,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>2236</v>
       </c>
@@ -720,9 +672,8 @@
       <c r="C16" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="D16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>2237</v>
       </c>
@@ -732,9 +683,8 @@
       <c r="C17" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="D17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>2238</v>
       </c>
@@ -744,9 +694,8 @@
       <c r="C18" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="D18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <v>2239</v>
       </c>
@@ -756,9 +705,8 @@
       <c r="C19" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="D19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>2240</v>
       </c>
@@ -768,9 +716,8 @@
       <c r="C20" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="D20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <v>2241</v>
       </c>
@@ -780,9 +727,8 @@
       <c r="C21" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="D21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
         <v>2242</v>
       </c>
@@ -792,9 +738,8 @@
       <c r="C22" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="D22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
         <v>2243</v>
       </c>
@@ -804,9 +749,8 @@
       <c r="C23" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="D23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
         <v>2244</v>
       </c>
@@ -816,9 +760,8 @@
       <c r="C24" s="1" t="n">
         <v>1003</v>
       </c>
-      <c r="D24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
         <v>2245</v>
       </c>
@@ -828,9 +771,8 @@
       <c r="C25" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="D25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
         <v>2246</v>
       </c>
@@ -840,9 +782,8 @@
       <c r="C26" s="1" t="n">
         <v>1003</v>
       </c>
-      <c r="D26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
         <v>2247</v>
       </c>
@@ -852,9 +793,8 @@
       <c r="C27" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="D27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
         <v>2248</v>
       </c>
@@ -864,9 +804,8 @@
       <c r="C28" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="D28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
         <v>2249</v>
       </c>
@@ -876,9 +815,8 @@
       <c r="C29" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="D29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
         <v>2250</v>
       </c>
@@ -888,9 +826,8 @@
       <c r="C30" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="D30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
         <v>2251</v>
       </c>
@@ -900,9 +837,8 @@
       <c r="C31" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="D31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
         <v>2252</v>
       </c>
@@ -912,9 +848,8 @@
       <c r="C32" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="D32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="n">
         <v>2253</v>
       </c>
@@ -924,9 +859,8 @@
       <c r="C33" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="D33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="n">
         <v>2254</v>
       </c>
@@ -936,9 +870,8 @@
       <c r="C34" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="D34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="n">
         <v>2255</v>
       </c>
@@ -948,9 +881,8 @@
       <c r="C35" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="D35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="n">
         <v>2256</v>
       </c>
@@ -960,9 +892,8 @@
       <c r="C36" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="D36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="n">
         <v>2257</v>
       </c>
@@ -972,9 +903,8 @@
       <c r="C37" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="D37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="n">
         <v>2258</v>
       </c>
@@ -984,9 +914,8 @@
       <c r="C38" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="D38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="n">
         <v>2259</v>
       </c>
@@ -996,9 +925,8 @@
       <c r="C39" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="D39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="n">
         <v>2260</v>
       </c>
@@ -1008,9 +936,8 @@
       <c r="C40" s="1" t="n">
         <v>1003</v>
       </c>
-      <c r="D40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="n">
         <v>2261</v>
       </c>
@@ -1020,9 +947,8 @@
       <c r="C41" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="D41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="n">
         <v>2262</v>
       </c>
@@ -1032,9 +958,8 @@
       <c r="C42" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="D42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="n">
         <v>2263</v>
       </c>
@@ -1044,9 +969,8 @@
       <c r="C43" s="1" t="n">
         <v>1002</v>
       </c>
-      <c r="D43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="n">
         <v>2264</v>
       </c>
@@ -1056,9 +980,8 @@
       <c r="C44" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="D44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="n">
         <v>2265</v>
       </c>
@@ -1068,9 +991,8 @@
       <c r="C45" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="D45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="n">
         <v>2266</v>
       </c>
@@ -1080,9 +1002,8 @@
       <c r="C46" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="D46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="n">
         <v>2267</v>
       </c>
@@ -1092,41 +1013,27 @@
       <c r="C47" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="D47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="4"/>
-      <c r="D48" s="0"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="4"/>
-      <c r="D49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="4"/>
-      <c r="D50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="4"/>
-      <c r="D51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="4"/>
-      <c r="D52" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="4"/>
-      <c r="D53" s="0"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="4"/>
-      <c r="D54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1146,21 +1053,20 @@
   </sheetPr>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="7" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1177,9 +1083,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>2222</v>
@@ -1195,9 +1101,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2222</v>
@@ -1212,13 +1118,11 @@
         <f aca="false">D3*VLOOKUP(C3, products!$A$2:$C$9, 3)</f>
         <v>560</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2222</v>
@@ -1233,14 +1137,11 @@
         <f aca="false">D4*VLOOKUP(C4, products!$A$2:$C$9, 3)</f>
         <v>40</v>
       </c>
-      <c r="H4" s="7" t="n">
-        <f aca="false">SUM(F2:F81)</f>
-        <v>16350</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>2222</v>
@@ -1257,9 +1158,9 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>1005</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>2223</v>
@@ -1274,11 +1175,10 @@
         <f aca="false">D6*VLOOKUP(C6, products!$A$2:$C$9, 3)</f>
         <v>200</v>
       </c>
-      <c r="H6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>1006</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>2223</v>
@@ -1294,9 +1194,9 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>1007</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>2223</v>
@@ -1312,9 +1212,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>1008</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>2223</v>
@@ -1330,9 +1230,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>1009</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>2224</v>
@@ -1348,9 +1248,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>1010</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>2224</v>
@@ -1366,9 +1266,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>1011</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>2225</v>
@@ -1384,9 +1284,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>1012</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>2225</v>
@@ -1402,9 +1302,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>2226</v>
@@ -1420,9 +1320,9 @@
         <v>330</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>1014</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>2226</v>
@@ -1438,9 +1338,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>1015</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>2227</v>
@@ -1456,9 +1356,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>1016</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>2228</v>
@@ -1474,9 +1374,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>1017</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>2228</v>
@@ -1492,9 +1392,9 @@
         <v>700</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>1018</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>2229</v>
@@ -1510,9 +1410,9 @@
         <v>450</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>1019</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>2229</v>
@@ -1528,9 +1428,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>1020</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>2229</v>
@@ -1546,9 +1446,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>1021</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>2230</v>
@@ -1564,9 +1464,9 @@
         <v>630</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>1022</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>2230</v>
@@ -1582,9 +1482,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>1023</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>2231</v>
@@ -1600,9 +1500,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>1024</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>2232</v>
@@ -1618,9 +1518,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>1025</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>2233</v>
@@ -1636,9 +1536,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>1026</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>2234</v>
@@ -1654,9 +1554,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>1027</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>2235</v>
@@ -1672,9 +1572,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>1028</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>2236</v>
@@ -1690,9 +1590,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>1029</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>2236</v>
@@ -1708,9 +1608,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>1030</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>2237</v>
@@ -1726,9 +1626,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>1031</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>2238</v>
@@ -1744,9 +1644,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>1032</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>2238</v>
@@ -1762,9 +1662,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>1033</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>2239</v>
@@ -1780,9 +1680,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>1034</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>2239</v>
@@ -1798,9 +1698,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>1035</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>2239</v>
@@ -1816,9 +1716,9 @@
         <v>490</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>1036</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>2240</v>
@@ -1834,9 +1734,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>1037</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>2241</v>
@@ -1852,9 +1752,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>1038</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>2242</v>
@@ -1870,9 +1770,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>39</v>
+        <v>1039</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>2243</v>
@@ -1888,9 +1788,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>1040</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>2244</v>
@@ -1906,9 +1806,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>1041</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>2244</v>
@@ -1924,9 +1824,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>1042</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>2245</v>
@@ -1942,9 +1842,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>1043</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>2245</v>
@@ -1960,9 +1860,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>1044</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>2246</v>
@@ -1978,9 +1878,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>45</v>
+        <v>1045</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>2247</v>
@@ -1996,9 +1896,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
-        <v>46</v>
+        <v>1046</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>2248</v>
@@ -2014,9 +1914,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>47</v>
+        <v>1047</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>2249</v>
@@ -2032,9 +1932,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
-        <v>48</v>
+        <v>1048</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>2250</v>
@@ -2050,9 +1950,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>49</v>
+        <v>1049</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>2251</v>
@@ -2068,9 +1968,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>50</v>
+        <v>1050</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>2252</v>
@@ -2086,9 +1986,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>51</v>
+        <v>1051</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>2253</v>
@@ -2104,9 +2004,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>52</v>
+        <v>1052</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>2254</v>
@@ -2122,9 +2022,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>53</v>
+        <v>1053</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>2255</v>
@@ -2140,9 +2040,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>54</v>
+        <v>1054</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>2256</v>
@@ -2158,9 +2058,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>55</v>
+        <v>1055</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>2257</v>
@@ -2176,9 +2076,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>56</v>
+        <v>1056</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>2258</v>
@@ -2194,9 +2094,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
-        <v>57</v>
+        <v>1057</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>2259</v>
@@ -2212,9 +2112,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
-        <v>58</v>
+        <v>1058</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>2260</v>
@@ -2230,9 +2130,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
-        <v>59</v>
+        <v>1059</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>2261</v>
@@ -2248,9 +2148,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
-        <v>60</v>
+        <v>1060</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>2262</v>
@@ -2266,9 +2166,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>61</v>
+        <v>1061</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>2263</v>
@@ -2284,9 +2184,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
-        <v>62</v>
+        <v>1062</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>2264</v>
@@ -2302,9 +2202,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>63</v>
+        <v>1063</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>2265</v>
@@ -2320,9 +2220,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>64</v>
+        <v>1064</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>2266</v>
@@ -2338,9 +2238,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>65</v>
+        <v>1065</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>2266</v>
@@ -2356,9 +2256,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
-        <v>66</v>
+        <v>1066</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>2266</v>
@@ -2374,9 +2274,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>67</v>
+        <v>1067</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>2267</v>
@@ -2387,15 +2287,14 @@
       <c r="D68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E68" s="0"/>
       <c r="F68" s="5" t="n">
         <f aca="false">D68*VLOOKUP(C68, products!$A$2:$C$9, 3)</f>
         <v>450</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
-        <v>68</v>
+        <v>1068</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>2267</v>
@@ -2411,9 +2310,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>69</v>
+        <v>1069</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>2267</v>
@@ -2429,9 +2328,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>70</v>
+        <v>1070</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>2267</v>
@@ -2447,9 +2346,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
-        <v>71</v>
+        <v>1071</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>2267</v>
@@ -2483,38 +2382,38 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>10</v>
@@ -2523,12 +2422,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>30</v>
@@ -2537,12 +2436,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>70</v>
@@ -2551,12 +2450,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>40</v>
@@ -2565,12 +2464,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>10</v>
@@ -2579,12 +2478,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>50</v>
@@ -2593,12 +2492,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>100</v>
@@ -2607,12 +2506,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>10</v>
